--- a/similarities/split_global/harmonic_similarity_timestamps_114.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_114.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>isophonics_194</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:25.160000', '0:01:34.900000')]</t>
+          <t>('0:01:20.420000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:36.660000', '0:01:46.300000')]</t>
+          <t>('0:02:24.085784', '0:02:29.240614')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=85.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=96.66']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['A/3', 'D', 'A']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:20.580000', '0:02:23.320000'), ('0:02:18.020000', '0:02:22.340000')]</t>
+          <t>('0:00:03.044470', '0:00:11.035850')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:21.722199', '0:00:26.760929'), ('0:01:05.810340', '0:01:11.679931')]</t>
+          <t>('0:01:20.420000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=140.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=21.722199', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>isophonics_19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A', 'E']]</t>
+          <t>['C', 'F', 'D:min', 'G:min7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:maj', 'Bb:maj', 'G:min', 'C:min7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:36.749660', '0:01:51.796190')]</t>
+          <t>('0:00:16.345170', '0:00:21.023990')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:58.440000', '0:02:02.340000')]</t>
+          <t>('0:01:07.802000', '0:01:18.073000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=96.74966']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-19#t=16.34517</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=67.802</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['C:min', 'G:maj/B', 'C:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:20.560000', '0:00:23.940000')]</t>
+          <t>('0:00:11.820000', '0:00:18.540000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:05.720000')]</t>
+          <t>('0:00:13.520000', '0:00:19.080000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.465952', '0:00:06.886543')]</t>
+          <t>('0:01:10.060000', '0:01:20.280000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_43</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+          <t>('0:00:41.320000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+          <t>('0:01:49.520000', '0:01:54.200000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['E:maj/B', 'E:min/B', 'B:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Db', 'Db:min', 'Ab']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:06.480000', '0:00:13.420000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:02:09.120000', '0:02:11.120000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=6.48</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=129.12</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_207</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+          <t>('0:00:01.600000', '0:00:12.540000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:06.980000', '0:00:21.920000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=6.98</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['A#:min/F', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:10.540000')]</t>
+          <t>('0:00:03.660000', '0:00:09.640000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:14.900000', '0:01:33.840000')]</t>
+          <t>('0:00:06.920000', '0:00:13.460000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=3.66</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=6.92</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>jaah_71</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:01:16.630000', '0:01:32.860000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:00:43.340000', '0:00:47.700000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=76.63</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=43.34</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:00:13.720000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:00:10.560000', '0:00:17.340000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G:7', 'C:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
+          <t>['D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:20.160000', '0:01:26.120000'), ('0:01:49.520000', '0:01:54.200000')]</t>
+          <t>('0:00:23.940000', '0:00:31.160000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:55.560000', '0:02:04.800000'), ('0:00:22.400000', '0:00:31.860000')]</t>
+          <t>('0:01:07.500000', '0:01:10.300000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=80.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=23.94</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=115.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=22.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=67.5</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>isophonics_93</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/C#', 'C:7'], ['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['Ab:maj', 'Eb/3', 'F:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'D:7'], ['D:7', 'G:min', 'C:min']]</t>
+          <t>['C', 'G', 'A:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:26', '0:00:33.880000'), ('0:00:23.400000', '0:00:31.320000')]</t>
+          <t>('0:00:20.996000', '0:00:24.398000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:57.940158', '0:01:02.259070'), ('0:01:00.854263', '0:01:06.566371')]</t>
+          <t>('0:00:03.059795', '0:00:10.455351')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=26.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=23.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=20.996</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=57.940158', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=60.854263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-93#t=3.059795</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_213</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['E', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:25.480000', '0:00:56.440000')]</t>
+          <t>('0:00:15.640000', '0:00:24.280000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:12.780000', '0:00:20.500000')]</t>
+          <t>('0:00:16.192174', '0:00:27.488682')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=25.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=15.64</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=12.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-213#t=16.192174</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:22.370000', '0:00:40.370000')]</t>
+          <t>('0:00:41.840000', '0:00:45.380000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:18.800000', '0:00:21.340000')]</t>
+          <t>('0:01:37.640000', '0:01:51')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=41.84</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=97.64</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
